--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1213E2-5610-4BC6-B0CF-EFF5FAF40612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1700C8B0-C147-420E-A624-11F2D4F632A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Collector</t>
   </si>
@@ -67,202 +67,196 @@
     <t>9.09</t>
   </si>
   <si>
+    <t>12.12</t>
+  </si>
+  <si>
     <t>5.88</t>
   </si>
   <si>
     <t>3.03</t>
   </si>
   <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>1,128,951.00</t>
+  </si>
+  <si>
+    <t>60,938,614.00</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>3,900,316.00</t>
+  </si>
+  <si>
+    <t>63,105,788.00</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>2,490,446.00</t>
+  </si>
+  <si>
+    <t>71,669,941.00</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>279,379.00</t>
+  </si>
+  <si>
+    <t>65,728,895.00</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>2,702,046.00</t>
+  </si>
+  <si>
+    <t>62,454,863.00</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>4,818,089.00</t>
+  </si>
+  <si>
+    <t>58,348,569.00</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>9.74</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>4,983,080.00</t>
+  </si>
+  <si>
+    <t>58,982,181.00</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>9.17</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>4,961,041.00</t>
+  </si>
+  <si>
+    <t>60,806,124.00</t>
+  </si>
+  <si>
+    <t>8.16</t>
+  </si>
+  <si>
     <t>12.54</t>
   </si>
   <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>213,398.00</t>
-  </si>
-  <si>
-    <t>60,938,614.00</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>4.73</t>
-  </si>
-  <si>
-    <t>6.06</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>1,231,974.00</t>
-  </si>
-  <si>
-    <t>63,105,788.00</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>2,311,816.00</t>
-  </si>
-  <si>
-    <t>71,669,941.00</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>279,379.00</t>
-  </si>
-  <si>
-    <t>65,728,895.00</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>2,189,338.00</t>
-  </si>
-  <si>
-    <t>62,454,863.00</t>
-  </si>
-  <si>
-    <t>3.51</t>
-  </si>
-  <si>
-    <t>4.91</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>2,761,951.00</t>
-  </si>
-  <si>
-    <t>58,348,569.00</t>
-  </si>
-  <si>
-    <t>6.76</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>2,389,504.00</t>
-  </si>
-  <si>
-    <t>58,982,181.00</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>9.17</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>4,961,041.00</t>
-  </si>
-  <si>
-    <t>60,806,124.00</t>
-  </si>
-  <si>
-    <t>8.16</t>
-  </si>
-  <si>
     <t>8.82</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>1,040,624.00</t>
+    <t>5,997,432.00</t>
   </si>
   <si>
     <t>75,417,718.00</t>
   </si>
   <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.57</t>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>4.15</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>1,336,299.00</t>
+    <t>2,210,572.00</t>
   </si>
   <si>
     <t>60,541,150.00</t>
   </si>
   <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.94</t>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>4.57</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>918,452.00</t>
+    <t>5,269,659.00</t>
   </si>
   <si>
     <t>73,461,750.00</t>
   </si>
   <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>3.63</t>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>9.63</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>1,909,615.00</t>
+    <t>4,227,282.00</t>
   </si>
   <si>
     <t>58,299,662.00</t>
   </si>
   <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>4.20</t>
+    <t>7.25</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
@@ -277,22 +271,22 @@
     <t>7.29</t>
   </si>
   <si>
-    <t>7.95</t>
+    <t>9.76</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>1,138,067.00</t>
+    <t>2,753,388.00</t>
   </si>
   <si>
     <t>65,107,492.00</t>
   </si>
   <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>5.43</t>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>11.56</t>
   </si>
 </sst>
 </file>
@@ -1136,24 +1130,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1204,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1216,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I2">
         <v>33</v>
@@ -1228,12 +1208,12 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1242,36 +1222,36 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="I3">
         <v>33</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1280,36 +1260,36 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="I4">
         <v>33</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1321,16 +1301,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>273</v>
+        <v>684</v>
       </c>
       <c r="I5">
         <v>33</v>
@@ -1339,15 +1319,15 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1356,36 +1336,36 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H6">
-        <v>251</v>
+        <v>551</v>
       </c>
       <c r="I6">
         <v>33</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1394,36 +1374,36 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="I7">
         <v>33</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1432,19 +1412,19 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
       <c r="H8">
-        <v>416</v>
+        <v>640</v>
       </c>
       <c r="I8">
         <v>33</v>
@@ -1453,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -1461,7 +1441,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1473,16 +1453,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
       <c r="H9">
-        <v>420</v>
+        <v>703</v>
       </c>
       <c r="I9">
         <v>34</v>
@@ -1491,15 +1471,15 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1508,36 +1488,36 @@
         <v>13</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10">
-        <v>274</v>
+        <v>832</v>
       </c>
       <c r="I10">
         <v>34</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1546,36 +1526,36 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>68</v>
       </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
       <c r="H11">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="I11">
         <v>34</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1584,36 +1564,36 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
       <c r="H12">
-        <v>1.0609999999999999</v>
+        <v>1.4730000000000001</v>
       </c>
       <c r="I12">
         <v>33</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1622,36 +1602,36 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
       <c r="H13">
-        <v>622</v>
+        <v>814</v>
       </c>
       <c r="I13">
         <v>34</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1663,33 +1643,33 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
       <c r="H14">
-        <v>234</v>
+        <v>782</v>
       </c>
       <c r="I14">
         <v>34</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1698,31 +1678,31 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
       <c r="H15">
-        <v>541</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="I15">
         <v>33</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1700C8B0-C147-420E-A624-11F2D4F632A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B3FC602A-6CF0-4121-878E-28330F751B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Collector</t>
   </si>
@@ -58,235 +58,94 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>s1</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>9.09</t>
-  </si>
-  <si>
-    <t>12.12</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
     <t>Anisa_s1</t>
   </si>
   <si>
-    <t>1,128,951.00</t>
-  </si>
-  <si>
-    <t>60,938,614.00</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>0.90</t>
+    <t>337,181.00</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>800,699.00</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>1,236,869.00</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>3,900,316.00</t>
-  </si>
-  <si>
-    <t>63,105,788.00</t>
-  </si>
-  <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>11.10</t>
+    <t>2,648,876.00</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>2,490,446.00</t>
-  </si>
-  <si>
-    <t>71,669,941.00</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>8.29</t>
+    <t>756,181.00</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>739,542.00</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>2,274,220.00</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>2,812,697.00</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>1,821,020.00</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>162,384.00</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>10,687.00</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>538,294.00</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>279,379.00</t>
-  </si>
-  <si>
-    <t>65,728,895.00</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>2,702,046.00</t>
-  </si>
-  <si>
-    <t>62,454,863.00</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>4,818,089.00</t>
-  </si>
-  <si>
-    <t>58,348,569.00</t>
-  </si>
-  <si>
-    <t>8.26</t>
-  </si>
-  <si>
-    <t>9.74</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>4,983,080.00</t>
-  </si>
-  <si>
-    <t>58,982,181.00</t>
-  </si>
-  <si>
-    <t>8.45</t>
-  </si>
-  <si>
-    <t>9.17</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>4,961,041.00</t>
-  </si>
-  <si>
-    <t>60,806,124.00</t>
-  </si>
-  <si>
-    <t>8.16</t>
-  </si>
-  <si>
-    <t>12.54</t>
-  </si>
-  <si>
-    <t>8.82</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>5,997,432.00</t>
-  </si>
-  <si>
-    <t>75,417,718.00</t>
-  </si>
-  <si>
-    <t>7.95</t>
-  </si>
-  <si>
-    <t>4.15</t>
+    <t>271,382.00</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>2,210,572.00</t>
-  </si>
-  <si>
-    <t>60,541,150.00</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>4.57</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>5,269,659.00</t>
-  </si>
-  <si>
-    <t>73,461,750.00</t>
-  </si>
-  <si>
-    <t>7.17</t>
-  </si>
-  <si>
-    <t>9.63</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>4,227,282.00</t>
-  </si>
-  <si>
-    <t>58,299,662.00</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>4,468,050.00</t>
-  </si>
-  <si>
-    <t>61,271,068.00</t>
-  </si>
-  <si>
-    <t>7.29</t>
-  </si>
-  <si>
-    <t>9.76</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>2,753,388.00</t>
-  </si>
-  <si>
-    <t>65,107,492.00</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>11.56</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +989,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,534 +1034,501 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.4730000000000001</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>782</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="I15">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B3FC602A-6CF0-4121-878E-28330F751B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84276E3-CAC0-4595-B1A3-BADAFA94BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>Collector</t>
   </si>
@@ -61,7 +61,22 @@
     <t>s1</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>12.90</t>
+  </si>
+  <si>
+    <t>9.68</t>
+  </si>
+  <si>
+    <t>7.94</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
@@ -70,88 +85,226 @@
     <t>Anisa_s1</t>
   </si>
   <si>
-    <t>337,181.00</t>
+    <t>556,912.00</t>
+  </si>
+  <si>
+    <t>57,795,497.00</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>1.40</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>800,699.00</t>
+    <t>4,454,525.00</t>
+  </si>
+  <si>
+    <t>74,289,679.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>9.12</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>1,236,869.00</t>
+    <t>6,373,174.00</t>
+  </si>
+  <si>
+    <t>78,194,474.00</t>
+  </si>
+  <si>
+    <t>8.15</t>
+  </si>
+  <si>
+    <t>10.31</t>
+  </si>
+  <si>
+    <t>14.52</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>2,648,876.00</t>
+    <t>5,205,946.00</t>
+  </si>
+  <si>
+    <t>57,062,552.00</t>
+  </si>
+  <si>
+    <t>7.33</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>756,181.00</t>
+    <t>3,819,840.00</t>
+  </si>
+  <si>
+    <t>65,002,470.00</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>5.03</t>
   </si>
   <si>
     <t>Dimas Kuat Anggowo</t>
   </si>
   <si>
-    <t>739,542.00</t>
+    <t>5,814,634.00</t>
+  </si>
+  <si>
+    <t>64,783,410.00</t>
+  </si>
+  <si>
+    <t>8.98</t>
+  </si>
+  <si>
+    <t>5.60</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>2,274,220.00</t>
+    <t>3,705,892.00</t>
+  </si>
+  <si>
+    <t>56,474,261.00</t>
+  </si>
+  <si>
+    <t>6.56</t>
+  </si>
+  <si>
+    <t>7.78</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>2,812,697.00</t>
+    <t>7,197,709.00</t>
+  </si>
+  <si>
+    <t>64,703,721.00</t>
+  </si>
+  <si>
+    <t>11.12</t>
+  </si>
+  <si>
+    <t>11.67</t>
+  </si>
+  <si>
+    <t>6.15</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>1,821,020.00</t>
+    <t>3,926,689.00</t>
+  </si>
+  <si>
+    <t>61,578,870.00</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>1.61</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>162,384.00</t>
+    <t>1,430,829.00</t>
+  </si>
+  <si>
+    <t>63,332,938.00</t>
+  </si>
+  <si>
+    <t>2.26</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>10,687.00</t>
+    <t>1,942,192.00</t>
+  </si>
+  <si>
+    <t>65,635,601.00</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>3.19</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>538,294.00</t>
+    <t>1,756,804.00</t>
+  </si>
+  <si>
+    <t>57,104,183.00</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>4.76</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>271,382.00</t>
+    <t>1,639,600.00</t>
+  </si>
+  <si>
+    <t>62,147,309.00</t>
+  </si>
+  <si>
+    <t>2.64</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>4,313,670.00</t>
+  </si>
+  <si>
+    <t>63,277,954.00</t>
+  </si>
+  <si>
+    <t>6.82</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>6.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -985,14 +1138,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9683BC33-C8A9-432D-9364-F39B854E14E9}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1034,501 +1201,534 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>227</v>
+      </c>
+      <c r="I3">
+        <v>62</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>962</v>
+      </c>
+      <c r="I7">
+        <v>62</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
         <v>13</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <v>460</v>
+      </c>
+      <c r="I8">
+        <v>62</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
         <v>13</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>928</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>894</v>
+      </c>
+      <c r="I11">
+        <v>62</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.579</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>593</v>
+      </c>
+      <c r="I15">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84276E3-CAC0-4595-B1A3-BADAFA94BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F60006-4A03-4FC9-B7C6-9D711BACC2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -61,241 +61,241 @@
     <t>s1</t>
   </si>
   <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>11.29</t>
+  </si>
+  <si>
+    <t>11.11</t>
+  </si>
+  <si>
+    <t>9.26</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>2,080,395.00</t>
+  </si>
+  <si>
+    <t>57,795,497.00</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>5,178,723.00</t>
+  </si>
+  <si>
+    <t>74,289,679.00</t>
+  </si>
+  <si>
+    <t>6.97</t>
+  </si>
+  <si>
+    <t>8.98</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>7,331,002.00</t>
+  </si>
+  <si>
+    <t>78,194,474.00</t>
+  </si>
+  <si>
+    <t>9.38</t>
+  </si>
+  <si>
+    <t>11.68</t>
+  </si>
+  <si>
+    <t>16.13</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>7,268,961.00</t>
+  </si>
+  <si>
+    <t>57,062,552.00</t>
+  </si>
+  <si>
+    <t>12.74</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
     <t>12.90</t>
   </si>
   <si>
-    <t>9.68</t>
-  </si>
-  <si>
-    <t>7.94</t>
-  </si>
-  <si>
-    <t>4.84</t>
-  </si>
-  <si>
-    <t>8.06</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>556,912.00</t>
-  </si>
-  <si>
-    <t>57,795,497.00</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>4,454,525.00</t>
-  </si>
-  <si>
-    <t>74,289,679.00</t>
-  </si>
-  <si>
-    <t>6.00</t>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>6,066,273.00</t>
+  </si>
+  <si>
+    <t>65,002,470.00</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>8.05</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>5,997,743.00</t>
+  </si>
+  <si>
+    <t>64,783,410.00</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>4,788,073.00</t>
+  </si>
+  <si>
+    <t>56,474,261.00</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>9,952,550.00</t>
+  </si>
+  <si>
+    <t>64,703,721.00</t>
+  </si>
+  <si>
+    <t>15.38</t>
+  </si>
+  <si>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>8,504,751.00</t>
+  </si>
+  <si>
+    <t>61,578,870.00</t>
+  </si>
+  <si>
+    <t>13.81</t>
+  </si>
+  <si>
+    <t>9.69</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>5,532,419.00</t>
+  </si>
+  <si>
+    <t>63,332,938.00</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>3,842,192.00</t>
+  </si>
+  <si>
+    <t>65,635,601.00</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>2,720,158.00</t>
+  </si>
+  <si>
+    <t>57,104,183.00</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>6.35</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>1,639,600.00</t>
+  </si>
+  <si>
+    <t>62,147,309.00</t>
+  </si>
+  <si>
+    <t>2.64</t>
   </si>
   <si>
     <t>3.53</t>
   </si>
   <si>
-    <t>9.12</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>6,373,174.00</t>
-  </si>
-  <si>
-    <t>78,194,474.00</t>
-  </si>
-  <si>
-    <t>8.15</t>
-  </si>
-  <si>
-    <t>10.31</t>
-  </si>
-  <si>
-    <t>14.52</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>5,205,946.00</t>
-  </si>
-  <si>
-    <t>57,062,552.00</t>
-  </si>
-  <si>
-    <t>7.33</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>3,819,840.00</t>
-  </si>
-  <si>
-    <t>65,002,470.00</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>5.03</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>5,814,634.00</t>
-  </si>
-  <si>
-    <t>64,783,410.00</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>3,705,892.00</t>
-  </si>
-  <si>
-    <t>56,474,261.00</t>
-  </si>
-  <si>
-    <t>6.56</t>
-  </si>
-  <si>
-    <t>7.78</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>7,197,709.00</t>
-  </si>
-  <si>
-    <t>64,703,721.00</t>
-  </si>
-  <si>
-    <t>11.12</t>
-  </si>
-  <si>
-    <t>11.67</t>
-  </si>
-  <si>
-    <t>6.15</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>3,926,689.00</t>
-  </si>
-  <si>
-    <t>61,578,870.00</t>
-  </si>
-  <si>
-    <t>6.38</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>1,430,829.00</t>
-  </si>
-  <si>
-    <t>63,332,938.00</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>1,942,192.00</t>
-  </si>
-  <si>
-    <t>65,635,601.00</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>1,756,804.00</t>
-  </si>
-  <si>
-    <t>57,104,183.00</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>4.76</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>1,639,600.00</t>
-  </si>
-  <si>
-    <t>62,147,309.00</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>4,313,670.00</t>
+    <t>5,313,670.00</t>
   </si>
   <si>
     <t>63,277,954.00</t>
   </si>
   <si>
-    <t>6.82</t>
-  </si>
-  <si>
-    <t>8.33</t>
+    <t>10.19</t>
   </si>
   <si>
     <t>6.25</t>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1138,11 +1138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9683BC33-C8A9-432D-9364-F39B854E14E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,25 +1201,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1242,13 +1242,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1260,19 +1260,19 @@
         <v>28</v>
       </c>
       <c r="H3">
-        <v>227</v>
+        <v>657</v>
       </c>
       <c r="I3">
         <v>62</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1280,13 +1280,13 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -1298,13 +1298,13 @@
         <v>34</v>
       </c>
       <c r="H4">
-        <v>2.0030000000000001</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="I4">
         <v>62</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
@@ -1318,13 +1318,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -1333,45 +1333,45 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>775</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="I5">
         <v>62</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1380,165 +1380,165 @@
         <v>62</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>962</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="I7">
         <v>62</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>460</v>
+        <v>1.369</v>
       </c>
       <c r="I8">
         <v>62</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>928</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="I9">
         <v>65</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>875</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="I10">
         <v>62</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>69</v>
@@ -1564,54 +1564,54 @@
         <v>71</v>
       </c>
       <c r="H11">
-        <v>894</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="I11">
         <v>62</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12">
-        <v>460</v>
+        <v>1.087</v>
       </c>
       <c r="I12">
         <v>63</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -1619,37 +1619,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>1.4790000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="I13">
         <v>63</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
         <v>82</v>
@@ -1660,7 +1660,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1678,7 +1678,7 @@
         <v>86</v>
       </c>
       <c r="H14">
-        <v>1.579</v>
+        <v>2.3620000000000001</v>
       </c>
       <c r="I14">
         <v>62</v>
@@ -1687,36 +1687,36 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>593</v>
+        <v>674</v>
       </c>
       <c r="I15">
         <v>64</v>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F60006-4A03-4FC9-B7C6-9D711BACC2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A551C7AF-4696-4902-A623-ACAFC73D89ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Collector</t>
   </si>
@@ -61,250 +61,82 @@
     <t>s1</t>
   </si>
   <si>
-    <t>8.06</t>
-  </si>
-  <si>
-    <t>11.29</t>
-  </si>
-  <si>
-    <t>11.11</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>7.14</t>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>710,323.00</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>4,688,991.00</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>1,075,171.00</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>1,732,332.00</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>359,357.00</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>1,082,695.00</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>760,430.00</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>2,080,395.00</t>
-  </si>
-  <si>
-    <t>57,795,497.00</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>4.84</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>5,178,723.00</t>
-  </si>
-  <si>
-    <t>74,289,679.00</t>
-  </si>
-  <si>
-    <t>6.97</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>5.32</t>
+    <t>176,557.00</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>7,331,002.00</t>
-  </si>
-  <si>
-    <t>78,194,474.00</t>
-  </si>
-  <si>
-    <t>9.38</t>
-  </si>
-  <si>
-    <t>11.68</t>
-  </si>
-  <si>
-    <t>16.13</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>7,268,961.00</t>
-  </si>
-  <si>
-    <t>57,062,552.00</t>
-  </si>
-  <si>
-    <t>12.74</t>
-  </si>
-  <si>
-    <t>8.40</t>
-  </si>
-  <si>
-    <t>12.90</t>
-  </si>
-  <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>6,066,273.00</t>
-  </si>
-  <si>
-    <t>65,002,470.00</t>
-  </si>
-  <si>
-    <t>9.33</t>
-  </si>
-  <si>
-    <t>8.05</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>5,997,743.00</t>
-  </si>
-  <si>
-    <t>64,783,410.00</t>
-  </si>
-  <si>
-    <t>6.38</t>
-  </si>
-  <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>4,788,073.00</t>
-  </si>
-  <si>
-    <t>56,474,261.00</t>
-  </si>
-  <si>
-    <t>8.48</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>9,952,550.00</t>
-  </si>
-  <si>
-    <t>64,703,721.00</t>
-  </si>
-  <si>
-    <t>15.38</t>
-  </si>
-  <si>
-    <t>15.44</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
     <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>8,504,751.00</t>
-  </si>
-  <si>
-    <t>61,578,870.00</t>
-  </si>
-  <si>
-    <t>13.81</t>
-  </si>
-  <si>
-    <t>9.69</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>5,532,419.00</t>
-  </si>
-  <si>
-    <t>63,332,938.00</t>
-  </si>
-  <si>
-    <t>8.74</t>
-  </si>
-  <si>
-    <t>9.30</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>3,842,192.00</t>
-  </si>
-  <si>
-    <t>65,635,601.00</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>2,720,158.00</t>
-  </si>
-  <si>
-    <t>57,104,183.00</t>
-  </si>
-  <si>
-    <t>4.76</t>
-  </si>
-  <si>
-    <t>6.35</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>1,639,600.00</t>
-  </si>
-  <si>
-    <t>62,147,309.00</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>5,313,670.00</t>
-  </si>
-  <si>
-    <t>63,277,954.00</t>
-  </si>
-  <si>
-    <t>10.19</t>
-  </si>
-  <si>
-    <t>6.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1138,11 +970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA136F0E-9F07-46D1-AE8C-E5564E9A1EC7}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,534 +1033,336 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.3620000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.0760000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.369</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1.2829999999999999</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="I10">
-        <v>62</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="I11">
-        <v>62</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12">
-        <v>1.087</v>
-      </c>
-      <c r="I12">
-        <v>63</v>
-      </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13">
-        <v>2.66</v>
-      </c>
-      <c r="I13">
-        <v>63</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="I14">
-        <v>62</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15">
-        <v>674</v>
-      </c>
-      <c r="I15">
-        <v>64</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A551C7AF-4696-4902-A623-ACAFC73D89ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{275F8388-774F-42C0-96C6-59D61144F6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Collector</t>
   </si>
@@ -61,82 +61,235 @@
     <t>s1</t>
   </si>
   <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
     <t>Anisa_s1</t>
   </si>
   <si>
-    <t>710,323.00</t>
+    <t>2,734,847.00</t>
+  </si>
+  <si>
+    <t>65,483,933.00</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>2.58</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>4,688,991.00</t>
+    <t>5,945,791.00</t>
+  </si>
+  <si>
+    <t>58,841,778.00</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>4.60</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>1,075,171.00</t>
+    <t>3,291,509.00</t>
+  </si>
+  <si>
+    <t>51,473,583.00</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>13.47</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>1,732,332.00</t>
+    <t>2,084,423.00</t>
+  </si>
+  <si>
+    <t>54,540,364.00</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>10.71</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>359,357.00</t>
+    <t>521,853.00</t>
+  </si>
+  <si>
+    <t>60,736,691.00</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>2.97</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>1,082,695.00</t>
+    <t>1,540,476.00</t>
+  </si>
+  <si>
+    <t>53,330,936.00</t>
+  </si>
+  <si>
+    <t>2.89</t>
   </si>
   <si>
     <t>Dimas Kuat Anggowo</t>
   </si>
   <si>
-    <t>760,430.00</t>
+    <t>867,990.00</t>
+  </si>
+  <si>
+    <t>60,205,171.00</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>6.67</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>176,557.00</t>
+    <t>1,268,565.00</t>
+  </si>
+  <si>
+    <t>56,699,582.00</t>
+  </si>
+  <si>
+    <t>2.24</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
+    <t>666,522.00</t>
+  </si>
+  <si>
+    <t>66,487,023.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>661,488.00</t>
+  </si>
+  <si>
+    <t>52,825,904.00</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
+    <t>1,132,099.00</t>
+  </si>
+  <si>
+    <t>64,654,111.00</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
+    <t>322,200.00</t>
+  </si>
+  <si>
+    <t>73,236,922.00</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>Syaiful Munir</t>
+    <t>326,899.00</t>
+  </si>
+  <si>
+    <t>61,165,656.00</t>
+  </si>
+  <si>
+    <t>1.46</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>431,311.00</t>
+  </si>
+  <si>
+    <t>57,501,129.00</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -970,28 +1123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA136F0E-9F07-46D1-AE8C-E5564E9A1EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1033,336 +1172,534 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>301</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>237</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>313</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <v>692</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <v>169</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>195</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>821</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>158</v>
+      </c>
+      <c r="I14">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15">
+        <v>799</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{275F8388-774F-42C0-96C6-59D61144F6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A4BF06-C6A6-4C47-BF63-D7A96960EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Collector</t>
   </si>
@@ -61,163 +61,160 @@
     <t>s1</t>
   </si>
   <si>
+    <t>10.71</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>7.14</t>
   </si>
   <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>3.57</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>1.75</t>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>3,329,296.00</t>
+  </si>
+  <si>
+    <t>65,483,933.00</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>9.77</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>6,291,429.00</t>
+  </si>
+  <si>
+    <t>58,841,778.00</t>
+  </si>
+  <si>
+    <t>10.69</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>3,577,016.00</t>
+  </si>
+  <si>
+    <t>51,473,583.00</t>
+  </si>
+  <si>
+    <t>6.95</t>
+  </si>
+  <si>
+    <t>13.47</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>3,405,165.00</t>
+  </si>
+  <si>
+    <t>54,540,364.00</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>814,726.00</t>
+  </si>
+  <si>
+    <t>60,736,691.00</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>1,686,964.00</t>
+  </si>
+  <si>
+    <t>53,330,936.00</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>867,990.00</t>
+  </si>
+  <si>
+    <t>60,205,171.00</t>
   </si>
   <si>
     <t>1.44</t>
   </si>
   <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>2,734,847.00</t>
-  </si>
-  <si>
-    <t>65,483,933.00</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>5,945,791.00</t>
-  </si>
-  <si>
-    <t>58,841,778.00</t>
-  </si>
-  <si>
-    <t>10.10</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>3,291,509.00</t>
-  </si>
-  <si>
-    <t>51,473,583.00</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>13.47</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>2,084,423.00</t>
-  </si>
-  <si>
-    <t>54,540,364.00</t>
-  </si>
-  <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>10.71</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>521,853.00</t>
-  </si>
-  <si>
-    <t>60,736,691.00</t>
-  </si>
-  <si>
-    <t>0.87</t>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>1,268,565.00</t>
+  </si>
+  <si>
+    <t>56,699,582.00</t>
+  </si>
+  <si>
+    <t>2.24</t>
   </si>
   <si>
     <t>6.11</t>
   </si>
   <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>1,540,476.00</t>
-  </si>
-  <si>
-    <t>53,330,936.00</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>867,990.00</t>
-  </si>
-  <si>
-    <t>60,205,171.00</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>1,268,565.00</t>
-  </si>
-  <si>
-    <t>56,699,582.00</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>666,522.00</t>
+    <t>1,513,132.00</t>
   </si>
   <si>
     <t>66,487,023.00</t>
   </si>
   <si>
-    <t>1.00</t>
+    <t>2.28</t>
   </si>
   <si>
     <t>3.04</t>
@@ -226,46 +223,49 @@
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>661,488.00</t>
+    <t>1,331,897.00</t>
   </si>
   <si>
     <t>52,825,904.00</t>
   </si>
   <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>0.53</t>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>2.42</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>1,132,099.00</t>
+    <t>1,536,519.00</t>
   </si>
   <si>
     <t>64,654,111.00</t>
   </si>
   <si>
-    <t>4.62</t>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>6.34</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>322,200.00</t>
+    <t>1,498,562.00</t>
   </si>
   <si>
     <t>73,236,922.00</t>
   </si>
   <si>
-    <t>0.44</t>
+    <t>2.05</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>326,899.00</t>
+    <t>821,670.00</t>
   </si>
   <si>
     <t>61,165,656.00</t>
@@ -277,13 +277,16 @@
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>431,311.00</t>
+    <t>1,751,972.00</t>
   </si>
   <si>
     <t>57,501,129.00</t>
   </si>
   <si>
-    <t>0.75</t>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>4.55</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1130,24 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1172,66 +1189,66 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
       <c r="H2">
-        <v>301</v>
+        <v>570</v>
       </c>
       <c r="I2">
         <v>28</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="I3">
         <v>28</v>
@@ -1240,36 +1257,36 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
       <c r="H4">
-        <v>598</v>
+        <v>720</v>
       </c>
       <c r="I4">
         <v>28</v>
@@ -1278,36 +1295,36 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
       <c r="H5">
-        <v>811</v>
+        <v>959</v>
       </c>
       <c r="I5">
         <v>28</v>
@@ -1316,36 +1333,36 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>541</v>
+        <v>1.01</v>
       </c>
       <c r="I6">
         <v>29</v>
@@ -1354,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -1362,28 +1379,28 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>237</v>
+        <v>1.181</v>
       </c>
       <c r="I7">
         <v>28</v>
@@ -1392,18 +1409,18 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1412,16 +1429,16 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>313</v>
+        <v>526</v>
       </c>
       <c r="I8">
         <v>30</v>
@@ -1430,18 +1447,18 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1450,13 +1467,13 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1468,36 +1485,36 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
       <c r="H10">
-        <v>692</v>
+        <v>1.296</v>
       </c>
       <c r="I10">
         <v>28</v>
@@ -1506,45 +1523,45 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
       <c r="H11">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="I11">
         <v>28</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1552,34 +1569,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
       <c r="H12">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="I12">
         <v>28</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
         <v>75</v>
@@ -1593,13 +1610,13 @@
         <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -1611,19 +1628,19 @@
         <v>79</v>
       </c>
       <c r="H13">
-        <v>821</v>
+        <v>1.772</v>
       </c>
       <c r="I13">
         <v>28</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,13 +1648,13 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>81</v>
@@ -1646,10 +1663,10 @@
         <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>158</v>
+        <v>693</v>
       </c>
       <c r="I14">
         <v>29</v>
@@ -1669,13 +1686,13 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
@@ -1687,19 +1704,19 @@
         <v>87</v>
       </c>
       <c r="H15">
-        <v>799</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="I15">
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A4BF06-C6A6-4C47-BF63-D7A96960EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{156821ED-B703-49EB-8469-37EE35919815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>Collector</t>
   </si>
@@ -58,235 +58,262 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
     <t>s1</t>
   </si>
   <si>
-    <t>10.71</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>7.14</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>5.88</t>
+    <t>105,953,332.00</t>
+  </si>
+  <si>
+    <t>496,525,037.00</t>
+  </si>
+  <si>
+    <t>21.34</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>14.71</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>101,914,515.00</t>
+  </si>
+  <si>
+    <t>530,700,183.00</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
+    <t>12.79</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>120,951,849.00</t>
+  </si>
+  <si>
+    <t>516,061,290.00</t>
+  </si>
+  <si>
+    <t>23.44</t>
+  </si>
+  <si>
+    <t>14.42</t>
+  </si>
+  <si>
+    <t>15.11</t>
+  </si>
+  <si>
+    <t>15.36</t>
+  </si>
+  <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>95,699,464.00</t>
+  </si>
+  <si>
+    <t>492,928,251.00</t>
+  </si>
+  <si>
+    <t>19.41</t>
+  </si>
+  <si>
+    <t>13.87</t>
+  </si>
+  <si>
+    <t>12.78</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>3,329,296.00</t>
-  </si>
-  <si>
-    <t>65,483,933.00</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>9.77</t>
+    <t>100,426,431.00</t>
+  </si>
+  <si>
+    <t>547,851,088.00</t>
+  </si>
+  <si>
+    <t>18.33</t>
+  </si>
+  <si>
+    <t>11.35</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>136,052,680.00</t>
+  </si>
+  <si>
+    <t>536,509,428.00</t>
+  </si>
+  <si>
+    <t>25.36</t>
+  </si>
+  <si>
+    <t>13.47</t>
+  </si>
+  <si>
+    <t>11.61</t>
+  </si>
+  <si>
+    <t>21.39</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>122,646,112.00</t>
+  </si>
+  <si>
+    <t>562,903,350.00</t>
+  </si>
+  <si>
+    <t>21.79</t>
+  </si>
+  <si>
+    <t>14.13</t>
+  </si>
+  <si>
+    <t>14.75</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>95,842,398.00</t>
+  </si>
+  <si>
+    <t>551,480,411.00</t>
+  </si>
+  <si>
+    <t>17.38</t>
+  </si>
+  <si>
+    <t>10.63</t>
+  </si>
+  <si>
+    <t>9.80</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>128,885,648.00</t>
+  </si>
+  <si>
+    <t>534,643,664.00</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
+    <t>13.98</t>
+  </si>
+  <si>
+    <t>15.32</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>126,921,858.00</t>
+  </si>
+  <si>
+    <t>546,168,257.00</t>
+  </si>
+  <si>
+    <t>23.24</t>
+  </si>
+  <si>
+    <t>13.54</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>108,824,115.00</t>
+  </si>
+  <si>
+    <t>541,797,311.00</t>
+  </si>
+  <si>
+    <t>20.09</t>
+  </si>
+  <si>
+    <t>12.95</t>
+  </si>
+  <si>
+    <t>13.39</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>113,277,619.00</t>
+  </si>
+  <si>
+    <t>529,573,730.00</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>13.32</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>118,485,834.00</t>
+  </si>
+  <si>
+    <t>529,964,396.00</t>
+  </si>
+  <si>
+    <t>22.36</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>12.60</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>6,291,429.00</t>
-  </si>
-  <si>
-    <t>58,841,778.00</t>
-  </si>
-  <si>
-    <t>10.69</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>3,577,016.00</t>
-  </si>
-  <si>
-    <t>51,473,583.00</t>
-  </si>
-  <si>
-    <t>6.95</t>
-  </si>
-  <si>
-    <t>13.47</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>3,405,165.00</t>
-  </si>
-  <si>
-    <t>54,540,364.00</t>
-  </si>
-  <si>
-    <t>6.24</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>814,726.00</t>
-  </si>
-  <si>
-    <t>60,736,691.00</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>1,686,964.00</t>
-  </si>
-  <si>
-    <t>53,330,936.00</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>867,990.00</t>
-  </si>
-  <si>
-    <t>60,205,171.00</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>1,268,565.00</t>
-  </si>
-  <si>
-    <t>56,699,582.00</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>1,513,132.00</t>
-  </si>
-  <si>
-    <t>66,487,023.00</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>1,331,897.00</t>
-  </si>
-  <si>
-    <t>52,825,904.00</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>1,536,519.00</t>
-  </si>
-  <si>
-    <t>64,654,111.00</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>6.34</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>1,498,562.00</t>
-  </si>
-  <si>
-    <t>73,236,922.00</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>821,670.00</t>
-  </si>
-  <si>
-    <t>61,165,656.00</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>1,751,972.00</t>
-  </si>
-  <si>
-    <t>57,501,129.00</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>4.55</t>
+    <t>132,911,108.00</t>
+  </si>
+  <si>
+    <t>535,710,779.00</t>
+  </si>
+  <si>
+    <t>24.81</t>
+  </si>
+  <si>
+    <t>13.84</t>
+  </si>
+  <si>
+    <t>10.55</t>
   </si>
 </sst>
 </file>
@@ -1129,9 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1189,192 +1214,192 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>27.298999999999999</v>
+      </c>
+      <c r="I2">
+        <v>700</v>
+      </c>
+      <c r="J2">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>570</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>25.963999999999999</v>
+      </c>
+      <c r="I3">
+        <v>732</v>
+      </c>
+      <c r="J3">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>287</v>
-      </c>
-      <c r="I3">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>25.873000000000001</v>
+      </c>
+      <c r="I4">
+        <v>728</v>
+      </c>
+      <c r="J4">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>720</v>
-      </c>
-      <c r="I4">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5">
+        <v>16.292000000000002</v>
+      </c>
+      <c r="I5">
+        <v>704</v>
+      </c>
+      <c r="J5">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>38</v>
-      </c>
-      <c r="H5">
-        <v>959</v>
-      </c>
-      <c r="I5">
-        <v>28</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>155</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>29.696000000000002</v>
+      </c>
+      <c r="I6">
+        <v>729</v>
+      </c>
+      <c r="J6">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="H6">
-        <v>1.01</v>
-      </c>
-      <c r="I6">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1382,13 +1407,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -1400,323 +1425,323 @@
         <v>48</v>
       </c>
       <c r="H7">
-        <v>1.181</v>
+        <v>29.332000000000001</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>732</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
         <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>526</v>
+        <v>49.555</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>732</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>29.443000000000001</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>735</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H10">
-        <v>1.296</v>
+        <v>37.000999999999998</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>731</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H11">
-        <v>226</v>
+        <v>35.308999999999997</v>
       </c>
       <c r="I11">
-        <v>28</v>
+        <v>729</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>324</v>
+        <v>32.646999999999998</v>
       </c>
       <c r="I12">
-        <v>28</v>
+        <v>732</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H13">
-        <v>1.772</v>
+        <v>33.149000000000001</v>
       </c>
       <c r="I13">
-        <v>28</v>
+        <v>736</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="H14">
-        <v>693</v>
+        <v>40.856000000000002</v>
       </c>
       <c r="I14">
-        <v>29</v>
+        <v>738</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>1.4750000000000001</v>
+        <v>54.57</v>
       </c>
       <c r="I15">
-        <v>29</v>
+        <v>730</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156821ED-B703-49EB-8469-37EE35919815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8742EFD4-581A-472A-898F-818ECDE2E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Collector</t>
   </si>
@@ -58,262 +58,235 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>10.71</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>3,329,296.00</t>
+  </si>
+  <si>
+    <t>65,483,933.00</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>9.77</t>
+  </si>
+  <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>6,291,429.00</t>
+  </si>
+  <si>
+    <t>58,841,778.00</t>
+  </si>
+  <si>
+    <t>10.69</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>3,577,016.00</t>
+  </si>
+  <si>
+    <t>51,473,583.00</t>
+  </si>
+  <si>
+    <t>6.95</t>
+  </si>
+  <si>
+    <t>13.47</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>3,405,165.00</t>
+  </si>
+  <si>
+    <t>54,540,364.00</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>814,726.00</t>
+  </si>
+  <si>
+    <t>60,736,691.00</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>1,686,964.00</t>
+  </si>
+  <si>
+    <t>53,330,936.00</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
     <t>Dimas Kuat Anggowo</t>
   </si>
   <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>105,953,332.00</t>
-  </si>
-  <si>
-    <t>496,525,037.00</t>
-  </si>
-  <si>
-    <t>21.34</t>
-  </si>
-  <si>
-    <t>14.66</t>
-  </si>
-  <si>
-    <t>14.71</t>
+    <t>867,990.00</t>
+  </si>
+  <si>
+    <t>60,205,171.00</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>1,268,565.00</t>
+  </si>
+  <si>
+    <t>56,699,582.00</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>6.11</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>101,914,515.00</t>
-  </si>
-  <si>
-    <t>530,700,183.00</t>
-  </si>
-  <si>
-    <t>19.20</t>
-  </si>
-  <si>
-    <t>12.79</t>
-  </si>
-  <si>
-    <t>14.07</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>120,951,849.00</t>
-  </si>
-  <si>
-    <t>516,061,290.00</t>
-  </si>
-  <si>
-    <t>23.44</t>
-  </si>
-  <si>
-    <t>14.42</t>
-  </si>
-  <si>
-    <t>15.11</t>
-  </si>
-  <si>
-    <t>15.36</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>95,699,464.00</t>
-  </si>
-  <si>
-    <t>492,928,251.00</t>
-  </si>
-  <si>
-    <t>19.41</t>
-  </si>
-  <si>
-    <t>13.87</t>
-  </si>
-  <si>
-    <t>12.78</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>100,426,431.00</t>
-  </si>
-  <si>
-    <t>547,851,088.00</t>
-  </si>
-  <si>
-    <t>18.33</t>
-  </si>
-  <si>
-    <t>11.35</t>
-  </si>
-  <si>
-    <t>10.56</t>
+    <t>1,513,132.00</t>
+  </si>
+  <si>
+    <t>66,487,023.00</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>1,331,897.00</t>
+  </si>
+  <si>
+    <t>52,825,904.00</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>2.42</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>136,052,680.00</t>
-  </si>
-  <si>
-    <t>536,509,428.00</t>
-  </si>
-  <si>
-    <t>25.36</t>
-  </si>
-  <si>
-    <t>13.47</t>
-  </si>
-  <si>
-    <t>11.61</t>
-  </si>
-  <si>
-    <t>21.39</t>
+    <t>1,536,519.00</t>
+  </si>
+  <si>
+    <t>64,654,111.00</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>6.34</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>122,646,112.00</t>
-  </si>
-  <si>
-    <t>562,903,350.00</t>
-  </si>
-  <si>
-    <t>21.79</t>
-  </si>
-  <si>
-    <t>14.13</t>
-  </si>
-  <si>
-    <t>14.75</t>
+    <t>1,498,562.00</t>
+  </si>
+  <si>
+    <t>73,236,922.00</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>95,842,398.00</t>
-  </si>
-  <si>
-    <t>551,480,411.00</t>
-  </si>
-  <si>
-    <t>17.38</t>
-  </si>
-  <si>
-    <t>10.63</t>
-  </si>
-  <si>
-    <t>9.80</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>128,885,648.00</t>
-  </si>
-  <si>
-    <t>534,643,664.00</t>
-  </si>
-  <si>
-    <t>24.11</t>
-  </si>
-  <si>
-    <t>13.98</t>
-  </si>
-  <si>
-    <t>15.32</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>126,921,858.00</t>
-  </si>
-  <si>
-    <t>546,168,257.00</t>
-  </si>
-  <si>
-    <t>23.24</t>
-  </si>
-  <si>
-    <t>13.54</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>108,824,115.00</t>
-  </si>
-  <si>
-    <t>541,797,311.00</t>
-  </si>
-  <si>
-    <t>20.09</t>
-  </si>
-  <si>
-    <t>12.95</t>
-  </si>
-  <si>
-    <t>13.39</t>
+    <t>821,670.00</t>
+  </si>
+  <si>
+    <t>61,165,656.00</t>
+  </si>
+  <si>
+    <t>1.46</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>113,277,619.00</t>
-  </si>
-  <si>
-    <t>529,573,730.00</t>
-  </si>
-  <si>
-    <t>14.80</t>
-  </si>
-  <si>
-    <t>13.32</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>118,485,834.00</t>
-  </si>
-  <si>
-    <t>529,964,396.00</t>
-  </si>
-  <si>
-    <t>22.36</t>
-  </si>
-  <si>
-    <t>11.25</t>
-  </si>
-  <si>
-    <t>12.60</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>132,911,108.00</t>
-  </si>
-  <si>
-    <t>535,710,779.00</t>
-  </si>
-  <si>
-    <t>24.81</t>
-  </si>
-  <si>
-    <t>13.84</t>
-  </si>
-  <si>
-    <t>10.55</t>
+    <t>1,751,972.00</t>
+  </si>
+  <si>
+    <t>57,501,129.00</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>4.55</t>
   </si>
 </sst>
 </file>
@@ -1156,23 +1129,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1214,192 +1175,192 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>570</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>27.298999999999999</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2">
-        <v>103</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>25.963999999999999</v>
+        <v>287</v>
       </c>
       <c r="I3">
-        <v>732</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>720</v>
+      </c>
+      <c r="I4">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>25.873000000000001</v>
-      </c>
-      <c r="I4">
-        <v>728</v>
-      </c>
       <c r="J4">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>16.292000000000002</v>
+        <v>959</v>
       </c>
       <c r="I5">
-        <v>704</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>29.696000000000002</v>
+        <v>1.01</v>
       </c>
       <c r="I6">
-        <v>729</v>
+        <v>29</v>
       </c>
       <c r="J6">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1407,13 +1368,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -1425,323 +1386,323 @@
         <v>48</v>
       </c>
       <c r="H7">
-        <v>29.332000000000001</v>
+        <v>1.181</v>
       </c>
       <c r="I7">
-        <v>732</v>
+        <v>28</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
         <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>181</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8">
+        <v>526</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>55</v>
-      </c>
-      <c r="H8">
-        <v>49.555</v>
-      </c>
-      <c r="I8">
-        <v>732</v>
-      </c>
-      <c r="J8">
-        <v>108</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>139</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9">
-        <v>29.443000000000001</v>
-      </c>
-      <c r="I9">
-        <v>735</v>
-      </c>
-      <c r="J9">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>62</v>
-      </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>209</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10">
+        <v>1.296</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10">
-        <v>37.000999999999998</v>
-      </c>
-      <c r="I10">
-        <v>731</v>
-      </c>
-      <c r="J10">
-        <v>112</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>226</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>185</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11">
-        <v>35.308999999999997</v>
-      </c>
-      <c r="I11">
-        <v>729</v>
-      </c>
-      <c r="J11">
-        <v>112</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>324</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" t="s">
+      <c r="L12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>166</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12">
-        <v>32.646999999999998</v>
-      </c>
-      <c r="I12">
-        <v>732</v>
-      </c>
-      <c r="J12">
-        <v>98</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>1.772</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>168</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13">
-        <v>33.149000000000001</v>
-      </c>
-      <c r="I13">
-        <v>736</v>
-      </c>
-      <c r="J13">
-        <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>693</v>
+      </c>
+      <c r="I14">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>14</v>
-      </c>
-      <c r="D14">
-        <v>200</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14">
-        <v>40.856000000000002</v>
-      </c>
-      <c r="I14">
-        <v>738</v>
-      </c>
-      <c r="J14">
-        <v>93</v>
-      </c>
-      <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
         <v>14</v>
-      </c>
-      <c r="D15">
-        <v>167</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15">
-        <v>54.57</v>
-      </c>
-      <c r="I15">
-        <v>730</v>
-      </c>
-      <c r="J15">
-        <v>77</v>
-      </c>
-      <c r="K15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8742EFD4-581A-472A-898F-818ECDE2E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15CA0D96-93AF-4821-AA7E-2AA02261BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>Collector</t>
   </si>
@@ -61,232 +61,88 @@
     <t>s1</t>
   </si>
   <si>
-    <t>10.71</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>7.14</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>5.88</t>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>194,170.00</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>3,329,296.00</t>
-  </si>
-  <si>
-    <t>65,483,933.00</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>9.77</t>
+    <t>1,291,385.00</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>6,291,429.00</t>
-  </si>
-  <si>
-    <t>58,841,778.00</t>
-  </si>
-  <si>
-    <t>10.69</t>
-  </si>
-  <si>
-    <t>4.60</t>
+    <t>1,526,860.00</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>419,354.00</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>3,577,016.00</t>
-  </si>
-  <si>
-    <t>51,473,583.00</t>
-  </si>
-  <si>
-    <t>6.95</t>
-  </si>
-  <si>
-    <t>13.47</t>
+    <t>476,086.00</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>282,397.00</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>176,557.00</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>672,015.00</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>359,327.00</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>574,908.00</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>1,669,177.00</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>3,766,475.00</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>3,405,165.00</t>
-  </si>
-  <si>
-    <t>54,540,364.00</t>
-  </si>
-  <si>
-    <t>6.24</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>814,726.00</t>
-  </si>
-  <si>
-    <t>60,736,691.00</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>1,686,964.00</t>
-  </si>
-  <si>
-    <t>53,330,936.00</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>2.97</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>867,990.00</t>
-  </si>
-  <si>
-    <t>60,205,171.00</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>1,268,565.00</t>
-  </si>
-  <si>
-    <t>56,699,582.00</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>1,513,132.00</t>
-  </si>
-  <si>
-    <t>66,487,023.00</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>1,331,897.00</t>
-  </si>
-  <si>
-    <t>52,825,904.00</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>1,536,519.00</t>
-  </si>
-  <si>
-    <t>64,654,111.00</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>6.34</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>1,498,562.00</t>
-  </si>
-  <si>
-    <t>73,236,922.00</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>821,670.00</t>
-  </si>
-  <si>
-    <t>61,165,656.00</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>1,751,972.00</t>
-  </si>
-  <si>
-    <t>57,501,129.00</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>4.55</t>
+    <t>209,993.00</t>
   </si>
 </sst>
 </file>
@@ -1127,13 +983,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1175,534 +1043,496 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.181</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1.296</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1.772</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="I15">
-        <v>29</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15CA0D96-93AF-4821-AA7E-2AA02261BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBD965E-C8BC-456E-B44C-29FE4EA2E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>Collector</t>
   </si>
@@ -61,6 +61,15 @@
     <t>s1</t>
   </si>
   <si>
+    <t>15.62</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -70,79 +79,229 @@
     <t>Anisa_s1</t>
   </si>
   <si>
-    <t>194,170.00</t>
+    <t>1,365,316.00</t>
+  </si>
+  <si>
+    <t>58,675,148.00</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>6.45</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>1,291,385.00</t>
+    <t>8,412,799.00</t>
+  </si>
+  <si>
+    <t>62,739,265.00</t>
+  </si>
+  <si>
+    <t>13.41</t>
+  </si>
+  <si>
+    <t>22.31</t>
+  </si>
+  <si>
+    <t>18.75</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
   </si>
   <si>
-    <t>1,526,860.00</t>
+    <t>3,556,206.00</t>
+  </si>
+  <si>
+    <t>59,792,645.00</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>11.65</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>419,354.00</t>
+    <t>1,798,524.00</t>
+  </si>
+  <si>
+    <t>51,189,078.00</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>4.57</t>
+  </si>
+  <si>
+    <t>13.84</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>476,086.00</t>
+    <t>12,399,528.00</t>
+  </si>
+  <si>
+    <t>59,348,563.00</t>
+  </si>
+  <si>
+    <t>20.89</t>
+  </si>
+  <si>
+    <t>30.22</t>
+  </si>
+  <si>
+    <t>9.38</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>282,397.00</t>
+    <t>5,123,551.00</t>
+  </si>
+  <si>
+    <t>63,835,098.00</t>
+  </si>
+  <si>
+    <t>8.03</t>
+  </si>
+  <si>
+    <t>7.59</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>176,557.00</t>
+    <t>694,435.00</t>
+  </si>
+  <si>
+    <t>61,684,274.00</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>16.19</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>672,015.00</t>
+    <t>2,664,185.00</t>
+  </si>
+  <si>
+    <t>50,042,659.00</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>12.31</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>359,327.00</t>
+    <t>2,131,574.00</t>
+  </si>
+  <si>
+    <t>62,474,263.00</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>0.53</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>574,908.00</t>
+    <t>4,648,464.00</t>
+  </si>
+  <si>
+    <t>61,763,312.00</t>
+  </si>
+  <si>
+    <t>7.53</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>1,669,177.00</t>
+    <t>2,420,621.00</t>
+  </si>
+  <si>
+    <t>56,176,818.00</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>6.25</t>
   </si>
   <si>
     <t>Dimas Kuat Anggowo</t>
   </si>
   <si>
-    <t>3,766,475.00</t>
+    <t>7,467,581.00</t>
+  </si>
+  <si>
+    <t>53,965,581.00</t>
+  </si>
+  <si>
+    <t>24.45</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>209,993.00</t>
+    <t>891,572.00</t>
+  </si>
+  <si>
+    <t>72,354,286.00</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>4,653,966.00</t>
+  </si>
+  <si>
+    <t>56,873,161.00</t>
+  </si>
+  <si>
+    <t>8.18</t>
+  </si>
+  <si>
+    <t>15.58</t>
+  </si>
+  <si>
+    <t>12.12</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1043,496 +1202,534 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.103</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>877</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.3620000000000001</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.623</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>1.65</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10">
+        <v>909</v>
+      </c>
+      <c r="I10">
         <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>1.831</v>
+      </c>
+      <c r="I12">
+        <v>31</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>916</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
+      </c>
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>13</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14">
+        <v>728</v>
+      </c>
+      <c r="I14">
+        <v>32</v>
+      </c>
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15">
+        <v>1.75</v>
+      </c>
+      <c r="I15">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBD965E-C8BC-456E-B44C-29FE4EA2E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4B4F4C3-209F-43A2-860E-258C5C96952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Collector</t>
   </si>
@@ -61,247 +61,88 @@
     <t>s1</t>
   </si>
   <si>
-    <t>15.62</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>12.90</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
+    <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>485,523.00</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>3,686,099.00</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>1,645,671.00</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>1,155,650.00</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>1,090,881.00</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>918,239.00</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>3,233,189.00</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>5,461,497.00</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>4,660,168.00</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>364,000.00</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>300,034.00</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>672,015.00</t>
+  </si>
+  <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>1,365,316.00</t>
-  </si>
-  <si>
-    <t>58,675,148.00</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>6.45</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>8,412,799.00</t>
-  </si>
-  <si>
-    <t>62,739,265.00</t>
-  </si>
-  <si>
-    <t>13.41</t>
-  </si>
-  <si>
-    <t>22.31</t>
-  </si>
-  <si>
-    <t>18.75</t>
-  </si>
-  <si>
-    <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>3,556,206.00</t>
-  </si>
-  <si>
-    <t>59,792,645.00</t>
-  </si>
-  <si>
-    <t>5.95</t>
-  </si>
-  <si>
-    <t>11.65</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>1,798,524.00</t>
-  </si>
-  <si>
-    <t>51,189,078.00</t>
-  </si>
-  <si>
-    <t>3.51</t>
-  </si>
-  <si>
-    <t>4.57</t>
-  </si>
-  <si>
-    <t>13.84</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>12,399,528.00</t>
-  </si>
-  <si>
-    <t>59,348,563.00</t>
-  </si>
-  <si>
-    <t>20.89</t>
-  </si>
-  <si>
-    <t>30.22</t>
-  </si>
-  <si>
-    <t>9.38</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>5,123,551.00</t>
-  </si>
-  <si>
-    <t>63,835,098.00</t>
-  </si>
-  <si>
-    <t>8.03</t>
-  </si>
-  <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>694,435.00</t>
-  </si>
-  <si>
-    <t>61,684,274.00</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>16.19</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>2,664,185.00</t>
-  </si>
-  <si>
-    <t>50,042,659.00</t>
-  </si>
-  <si>
-    <t>5.32</t>
-  </si>
-  <si>
-    <t>12.31</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>2,131,574.00</t>
-  </si>
-  <si>
-    <t>62,474,263.00</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
     <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>4,648,464.00</t>
-  </si>
-  <si>
-    <t>61,763,312.00</t>
-  </si>
-  <si>
-    <t>7.53</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>2,420,621.00</t>
-  </si>
-  <si>
-    <t>56,176,818.00</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>7,467,581.00</t>
-  </si>
-  <si>
-    <t>53,965,581.00</t>
-  </si>
-  <si>
-    <t>24.45</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>891,572.00</t>
-  </si>
-  <si>
-    <t>72,354,286.00</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>4,653,966.00</t>
-  </si>
-  <si>
-    <t>56,873,161.00</t>
-  </si>
-  <si>
-    <t>8.18</t>
-  </si>
-  <si>
-    <t>15.58</t>
-  </si>
-  <si>
-    <t>12.12</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1202,534 +1045,468 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.103</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.3620000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.623</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.0429999999999999</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.5740000000000001</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.831</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14">
-        <v>728</v>
-      </c>
-      <c r="I14">
-        <v>32</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15">
-        <v>1.75</v>
-      </c>
-      <c r="I15">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4B4F4C3-209F-43A2-860E-258C5C96952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA7C3E3-7D2D-4A1B-BE0E-D6D7B58308B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>Collector</t>
   </si>
@@ -61,7 +61,16 @@
     <t>s1</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>14.29</t>
+  </si>
+  <si>
+    <t>9.43</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
@@ -70,79 +79,226 @@
     <t>Anisa_s1</t>
   </si>
   <si>
-    <t>485,523.00</t>
+    <t>2,770,532.00</t>
+  </si>
+  <si>
+    <t>56,653,706.00</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>10.85</t>
+  </si>
+  <si>
+    <t>11.76</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>3,686,099.00</t>
+    <t>5,381,696.00</t>
+  </si>
+  <si>
+    <t>57,087,503.00</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>11.43</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>1,645,671.00</t>
+    <t>3,067,062.00</t>
+  </si>
+  <si>
+    <t>61,983,435.00</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>8.95</t>
   </si>
   <si>
     <t>Dimas Kuat Anggowo</t>
   </si>
   <si>
-    <t>1,155,650.00</t>
+    <t>1,864,062.00</t>
+  </si>
+  <si>
+    <t>51,585,992.00</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>15.15</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>1,090,881.00</t>
+    <t>1,530,346.00</t>
+  </si>
+  <si>
+    <t>56,585,658.00</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>6.06</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>918,239.00</t>
+    <t>2,088,647.00</t>
+  </si>
+  <si>
+    <t>49,815,106.00</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>14.71</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>3,233,189.00</t>
+    <t>6,103,561.00</t>
+  </si>
+  <si>
+    <t>55,326,698.00</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
+    <t>17.64</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>5,461,497.00</t>
+    <t>7,377,387.00</t>
+  </si>
+  <si>
+    <t>71,714,578.00</t>
+  </si>
+  <si>
+    <t>10.29</t>
+  </si>
+  <si>
+    <t>24.74</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>4,660,168.00</t>
+    <t>6,529,272.00</t>
+  </si>
+  <si>
+    <t>66,874,043.00</t>
+  </si>
+  <si>
+    <t>9.76</t>
+  </si>
+  <si>
+    <t>18.82</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>364,000.00</t>
+    <t>3,065,336.00</t>
+  </si>
+  <si>
+    <t>68,702,769.00</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>11.12</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>300,034.00</t>
+    <t>3,224,619.00</t>
+  </si>
+  <si>
+    <t>54,682,516.00</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>11.87</t>
+  </si>
+  <si>
+    <t>17.65</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>672,015.00</t>
+    <t>2,515,383.00</t>
+  </si>
+  <si>
+    <t>52,813,817.00</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>452,452.00</t>
+  </si>
+  <si>
+    <t>72,184,521.00</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.92</t>
   </si>
   <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
-    <t>Ramesintia Sinaga</t>
+    <t>1,156,915.00</t>
+  </si>
+  <si>
+    <t>60,328,475.00</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>3.98</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1142,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,468 +1201,534 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.204</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.5309999999999999</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14">
+        <v>1.86</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15">
+        <v>420</v>
+      </c>
+      <c r="I15">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA7C3E3-7D2D-4A1B-BE0E-D6D7B58308B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26F0678-4D09-4DF7-8CF1-B8B49D79B158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Collector</t>
   </si>
@@ -58,247 +58,94 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>s1</t>
   </si>
   <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>12.12</t>
-  </si>
-  <si>
-    <t>14.29</t>
-  </si>
-  <si>
-    <t>9.43</t>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>176,557.00</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>747,647.00</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>394,693.00</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>2,387,287.00</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>2,204,414.00</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>32,706.00</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>1,183,528.00</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>791,496.00</t>
+  </si>
+  <si>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>404,420.00</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>2,637,201.00</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>942,715.00</t>
+  </si>
+  <si>
+    <t>Gloriana Yesica</t>
+  </si>
+  <si>
+    <t>291,144.00</t>
+  </si>
+  <si>
+    <t>Fachrul Rozi</t>
+  </si>
+  <si>
+    <t>1,031,201.00</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
-  </si>
-  <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>2,770,532.00</t>
-  </si>
-  <si>
-    <t>56,653,706.00</t>
-  </si>
-  <si>
-    <t>4.89</t>
-  </si>
-  <si>
-    <t>10.85</t>
-  </si>
-  <si>
-    <t>11.76</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>5,381,696.00</t>
-  </si>
-  <si>
-    <t>57,087,503.00</t>
-  </si>
-  <si>
-    <t>5.63</t>
-  </si>
-  <si>
-    <t>11.43</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>3,067,062.00</t>
-  </si>
-  <si>
-    <t>61,983,435.00</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>8.95</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>1,864,062.00</t>
-  </si>
-  <si>
-    <t>51,585,992.00</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>15.15</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>1,530,346.00</t>
-  </si>
-  <si>
-    <t>56,585,658.00</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>6.06</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>2,088,647.00</t>
-  </si>
-  <si>
-    <t>49,815,106.00</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>14.71</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>6,103,561.00</t>
-  </si>
-  <si>
-    <t>55,326,698.00</t>
-  </si>
-  <si>
-    <t>11.03</t>
-  </si>
-  <si>
-    <t>17.64</t>
-  </si>
-  <si>
-    <t>Gloriana Yesica</t>
-  </si>
-  <si>
-    <t>7,377,387.00</t>
-  </si>
-  <si>
-    <t>71,714,578.00</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>24.74</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>6,529,272.00</t>
-  </si>
-  <si>
-    <t>66,874,043.00</t>
-  </si>
-  <si>
-    <t>9.76</t>
-  </si>
-  <si>
-    <t>18.82</t>
-  </si>
-  <si>
-    <t>Fachrul Rozi</t>
-  </si>
-  <si>
-    <t>3,065,336.00</t>
-  </si>
-  <si>
-    <t>68,702,769.00</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
-    <t>11.12</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>3,224,619.00</t>
-  </si>
-  <si>
-    <t>54,682,516.00</t>
-  </si>
-  <si>
-    <t>5.90</t>
-  </si>
-  <si>
-    <t>11.87</t>
-  </si>
-  <si>
-    <t>17.65</t>
-  </si>
-  <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>2,515,383.00</t>
-  </si>
-  <si>
-    <t>52,813,817.00</t>
-  </si>
-  <si>
-    <t>4.76</t>
-  </si>
-  <si>
-    <t>10.01</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>452,452.00</t>
-  </si>
-  <si>
-    <t>72,184,521.00</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>1,156,915.00</t>
-  </si>
-  <si>
-    <t>60,328,475.00</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>3.98</t>
   </si>
 </sst>
 </file>
@@ -1142,12 +989,12 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
@@ -1201,534 +1048,501 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.204</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>774</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.1060000000000001</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.5309999999999999</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15">
-        <v>420</v>
-      </c>
-      <c r="I15">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26F0678-4D09-4DF7-8CF1-B8B49D79B158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FB3049-D13B-4BDF-997C-2B34936D56F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Collector</t>
   </si>
@@ -58,94 +58,232 @@
     <t>New_collection_count_rate</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>13.79</t>
+  </si>
+  <si>
+    <t>10.34</t>
+  </si>
+  <si>
+    <t>6.90</t>
+  </si>
+  <si>
     <t>Shofa Khairunnisa</t>
   </si>
   <si>
     <t>Anisa_s1</t>
   </si>
   <si>
-    <t>176,557.00</t>
+    <t>3,274,201.00</t>
+  </si>
+  <si>
+    <t>65,856,067.00</t>
+  </si>
+  <si>
+    <t>4.97</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>3.45</t>
   </si>
   <si>
     <t>Neneng Hikmatul</t>
   </si>
   <si>
-    <t>747,647.00</t>
+    <t>5,417,899.00</t>
+  </si>
+  <si>
+    <t>56,840,166.00</t>
+  </si>
+  <si>
+    <t>9.53</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>0.84</t>
   </si>
   <si>
     <t>Okky Al Bana</t>
   </si>
   <si>
-    <t>394,693.00</t>
+    <t>967,331.00</t>
+  </si>
+  <si>
+    <t>51,836,018.00</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.80</t>
   </si>
   <si>
     <t>Ayu Lestari</t>
   </si>
   <si>
-    <t>2,387,287.00</t>
+    <t>9,352,492.00</t>
+  </si>
+  <si>
+    <t>64,263,551.00</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>20.84</t>
   </si>
   <si>
     <t>Dimas Kuat Anggowo</t>
   </si>
   <si>
-    <t>2,204,414.00</t>
+    <t>4,604,517.00</t>
+  </si>
+  <si>
+    <t>56,888,364.00</t>
+  </si>
+  <si>
+    <t>8.09</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>6.63</t>
   </si>
   <si>
     <t>Febri Fransiska</t>
   </si>
   <si>
-    <t>32,706.00</t>
+    <t>1,689,746.00</t>
+  </si>
+  <si>
+    <t>50,173,014.00</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>4.03</t>
   </si>
   <si>
     <t>Ramesintia Sinaga</t>
   </si>
   <si>
-    <t>1,183,528.00</t>
+    <t>1,628,281.00</t>
+  </si>
+  <si>
+    <t>72,773,463.00</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>5.65</t>
   </si>
   <si>
     <t>Dwi Gusti Anggraini</t>
   </si>
   <si>
-    <t>791,496.00</t>
+    <t>4,781,807.00</t>
+  </si>
+  <si>
+    <t>56,759,476.00</t>
+  </si>
+  <si>
+    <t>8.42</t>
+  </si>
+  <si>
+    <t>12.85</t>
   </si>
   <si>
     <t>Riska Rahmayanti</t>
   </si>
   <si>
-    <t>404,420.00</t>
+    <t>761,499.00</t>
+  </si>
+  <si>
+    <t>60,857,514.00</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>2.11</t>
   </si>
   <si>
     <t>Syaiful Munir</t>
   </si>
   <si>
-    <t>2,637,201.00</t>
+    <t>5,230,635.00</t>
+  </si>
+  <si>
+    <t>57,899,090.00</t>
+  </si>
+  <si>
+    <t>9.03</t>
+  </si>
+  <si>
+    <t>12.89</t>
   </si>
   <si>
     <t>Anisa Inraniwi</t>
   </si>
   <si>
-    <t>942,715.00</t>
+    <t>1,389,695.00</t>
+  </si>
+  <si>
+    <t>52,529,216.00</t>
+  </si>
+  <si>
+    <t>2.65</t>
   </si>
   <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>291,144.00</t>
+    <t>1,570,743.00</t>
+  </si>
+  <si>
+    <t>74,463,958.00</t>
+  </si>
+  <si>
+    <t>4.53</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>1,031,201.00</t>
+    <t>9,106,158.00</t>
+  </si>
+  <si>
+    <t>70,020,249.00</t>
+  </si>
+  <si>
+    <t>13.01</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
+  </si>
+  <si>
+    <t>495,282.00</t>
+  </si>
+  <si>
+    <t>65,452,479.00</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>3.33</t>
   </si>
 </sst>
 </file>
@@ -989,24 +1127,10 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1048,501 +1172,534 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>194</v>
+      </c>
+      <c r="I2">
+        <v>29</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>394</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>820</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.042</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>924</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>559</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9">
+        <v>496</v>
+      </c>
+      <c r="I9">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>425</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>524</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
         <v>13</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15">
+        <v>688</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/riska2.xlsx
+++ b/riska2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FB3049-D13B-4BDF-997C-2B34936D56F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C7305E-49FE-4522-BC62-52D1E28A1852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
@@ -61,214 +61,217 @@
     <t>s1</t>
   </si>
   <si>
+    <t>6.90</t>
+  </si>
+  <si>
+    <t>13.79</t>
+  </si>
+  <si>
+    <t>10.34</t>
+  </si>
+  <si>
+    <t>Shofa Khairunnisa</t>
+  </si>
+  <si>
+    <t>Anisa_s1</t>
+  </si>
+  <si>
+    <t>3,274,201.00</t>
+  </si>
+  <si>
+    <t>65,856,067.00</t>
+  </si>
+  <si>
+    <t>4.97</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>Neneng Hikmatul</t>
+  </si>
+  <si>
+    <t>6,004,855.00</t>
+  </si>
+  <si>
+    <t>56,840,166.00</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>Okky Al Bana</t>
+  </si>
+  <si>
+    <t>1,052,331.00</t>
+  </si>
+  <si>
+    <t>51,836,018.00</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>Ayu Lestari</t>
+  </si>
+  <si>
+    <t>11,105,377.00</t>
+  </si>
+  <si>
+    <t>64,263,551.00</t>
+  </si>
+  <si>
+    <t>17.28</t>
+  </si>
+  <si>
+    <t>21.80</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>Dimas Kuat Anggowo</t>
+  </si>
+  <si>
+    <t>5,297,981.00</t>
+  </si>
+  <si>
+    <t>56,888,364.00</t>
+  </si>
+  <si>
+    <t>9.31</t>
+  </si>
+  <si>
+    <t>8.26</t>
+  </si>
+  <si>
+    <t>Febri Fransiska</t>
+  </si>
+  <si>
+    <t>1,689,746.00</t>
+  </si>
+  <si>
+    <t>50,173,014.00</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>8.05</t>
+  </si>
+  <si>
+    <t>Ramesintia Sinaga</t>
+  </si>
+  <si>
+    <t>5,465,132.00</t>
+  </si>
+  <si>
+    <t>72,773,463.00</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>Dwi Gusti Anggraini</t>
+  </si>
+  <si>
+    <t>7,872,523.00</t>
+  </si>
+  <si>
+    <t>56,759,476.00</t>
+  </si>
+  <si>
+    <t>13.87</t>
+  </si>
+  <si>
+    <t>13.88</t>
+  </si>
+  <si>
     <t>6.67</t>
   </si>
   <si>
-    <t>13.79</t>
-  </si>
-  <si>
-    <t>10.34</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>Shofa Khairunnisa</t>
-  </si>
-  <si>
-    <t>Anisa_s1</t>
-  </si>
-  <si>
-    <t>3,274,201.00</t>
-  </si>
-  <si>
-    <t>65,856,067.00</t>
-  </si>
-  <si>
-    <t>4.97</t>
-  </si>
-  <si>
-    <t>5.48</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>Neneng Hikmatul</t>
-  </si>
-  <si>
-    <t>5,417,899.00</t>
-  </si>
-  <si>
-    <t>56,840,166.00</t>
-  </si>
-  <si>
-    <t>9.53</t>
-  </si>
-  <si>
-    <t>9.92</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>Okky Al Bana</t>
-  </si>
-  <si>
-    <t>967,331.00</t>
-  </si>
-  <si>
-    <t>51,836,018.00</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>Ayu Lestari</t>
-  </si>
-  <si>
-    <t>9,352,492.00</t>
-  </si>
-  <si>
-    <t>64,263,551.00</t>
-  </si>
-  <si>
-    <t>14.55</t>
-  </si>
-  <si>
-    <t>20.84</t>
-  </si>
-  <si>
-    <t>Dimas Kuat Anggowo</t>
-  </si>
-  <si>
-    <t>4,604,517.00</t>
-  </si>
-  <si>
-    <t>56,888,364.00</t>
-  </si>
-  <si>
-    <t>8.09</t>
-  </si>
-  <si>
-    <t>6.78</t>
+    <t>Riska Rahmayanti</t>
+  </si>
+  <si>
+    <t>1,354,666.00</t>
+  </si>
+  <si>
+    <t>60,857,514.00</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>Syaiful Munir</t>
+  </si>
+  <si>
+    <t>6,215,009.00</t>
+  </si>
+  <si>
+    <t>57,899,090.00</t>
+  </si>
+  <si>
+    <t>10.73</t>
+  </si>
+  <si>
+    <t>14.48</t>
+  </si>
+  <si>
+    <t>Anisa Inraniwi</t>
+  </si>
+  <si>
+    <t>1,680,839.00</t>
+  </si>
+  <si>
+    <t>52,529,216.00</t>
+  </si>
+  <si>
+    <t>3.20</t>
   </si>
   <si>
     <t>6.63</t>
   </si>
   <si>
-    <t>Febri Fransiska</t>
-  </si>
-  <si>
-    <t>1,689,746.00</t>
-  </si>
-  <si>
-    <t>50,173,014.00</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>Ramesintia Sinaga</t>
-  </si>
-  <si>
-    <t>1,628,281.00</t>
-  </si>
-  <si>
-    <t>72,773,463.00</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>5.65</t>
-  </si>
-  <si>
-    <t>Dwi Gusti Anggraini</t>
-  </si>
-  <si>
-    <t>4,781,807.00</t>
-  </si>
-  <si>
-    <t>56,759,476.00</t>
-  </si>
-  <si>
-    <t>8.42</t>
-  </si>
-  <si>
-    <t>12.85</t>
-  </si>
-  <si>
-    <t>Riska Rahmayanti</t>
-  </si>
-  <si>
-    <t>761,499.00</t>
-  </si>
-  <si>
-    <t>60,857,514.00</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>Syaiful Munir</t>
-  </si>
-  <si>
-    <t>5,230,635.00</t>
-  </si>
-  <si>
-    <t>57,899,090.00</t>
-  </si>
-  <si>
-    <t>9.03</t>
-  </si>
-  <si>
-    <t>12.89</t>
-  </si>
-  <si>
-    <t>Anisa Inraniwi</t>
-  </si>
-  <si>
-    <t>1,389,695.00</t>
-  </si>
-  <si>
-    <t>52,529,216.00</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
     <t>Gloriana Yesica</t>
   </si>
   <si>
-    <t>1,570,743.00</t>
+    <t>4,168,328.00</t>
   </si>
   <si>
     <t>74,463,958.00</t>
   </si>
   <si>
-    <t>4.53</t>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>5.70</t>
   </si>
   <si>
     <t>Fachrul Rozi</t>
   </si>
   <si>
-    <t>9,106,158.00</t>
+    <t>11,408,455.00</t>
   </si>
   <si>
     <t>70,020,249.00</t>
   </si>
   <si>
-    <t>13.01</t>
+    <t>16.29</t>
+  </si>
+  <si>
+    <t>6.26</t>
   </si>
   <si>
     <t>Raina Claresta Purwanika</t>
@@ -281,9 +284,6 @@
   </si>
   <si>
     <t>0.76</t>
-  </si>
-  <si>
-    <t>3.33</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L15"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1184,54 +1184,54 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2">
-        <v>194</v>
+        <v>391</v>
       </c>
       <c r="I2">
         <v>29</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3">
-        <v>394</v>
+        <v>678</v>
       </c>
       <c r="I3">
         <v>29</v>
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -1248,28 +1248,28 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>820</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="I4">
         <v>29</v>
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -1286,28 +1286,28 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1.042</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="I5">
         <v>29</v>
@@ -1316,56 +1316,56 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
       <c r="H6">
-        <v>924</v>
+        <v>1.625</v>
       </c>
       <c r="I6">
         <v>29</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1374,54 +1374,54 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>559</v>
+        <v>953</v>
       </c>
       <c r="I7">
         <v>29</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>952</v>
+        <v>1.01</v>
       </c>
       <c r="I8">
         <v>29</v>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -1438,66 +1438,66 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9">
-        <v>496</v>
+        <v>616</v>
       </c>
       <c r="I9">
         <v>29</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
       <c r="H10">
-        <v>425</v>
+        <v>698</v>
       </c>
       <c r="I10">
         <v>29</v>
@@ -1506,74 +1506,74 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
       <c r="H11">
-        <v>2.0419999999999998</v>
+        <v>3.0670000000000002</v>
       </c>
       <c r="I11">
         <v>29</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
       <c r="H12">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -1582,48 +1582,48 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
       <c r="H13">
-        <v>780</v>
+        <v>1.07</v>
       </c>
       <c r="I13">
         <v>29</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
         <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,13 +1631,13 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>80</v>
@@ -1649,27 +1649,27 @@
         <v>82</v>
       </c>
       <c r="H14">
-        <v>1.0029999999999999</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="I14">
         <v>29</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1678,28 +1678,28 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15">
-        <v>688</v>
+        <v>1.37</v>
       </c>
       <c r="I15">
         <v>30</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
